--- a/src/test/java/resources/ulkeler.xlsx
+++ b/src/test/java/resources/ulkeler.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2CB33B-669E-47A2-95A0-4D1E55E9CD82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD2156D-8FBF-40E2-9C99-77DB53CC7326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -2169,8 +2169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4860,14 +4860,101 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
